--- a/.config/config.xlsx
+++ b/.config/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icumed-my.sharepoint.com/personal/geoff_mill_icumed_com/Documents/Documents/UiPath/BlacklineItemWorking/.config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GM00061060\UiPath\BlacklineItemWorking\.config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{7DB7C3EF-FD5B-465F-A0AF-438C9BD8A028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F044D180-914F-43D8-8557-6803C2DB037B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8DF630-303F-43CB-8332-AE17580BE9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F103952-EB05-452A-A44A-30CC27982BEA}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3F103952-EB05-452A-A44A-30CC27982BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Value</t>
   </si>
@@ -56,25 +56,28 @@
     <t>OneDriveFolder</t>
   </si>
   <si>
-    <t>BackupFolder</t>
-  </si>
-  <si>
-    <t>C:\Users\GM00061060\Blackline\</t>
-  </si>
-  <si>
     <t>\.files\Period List.xlsx</t>
   </si>
   <si>
+    <t>BatchSaveLimit</t>
+  </si>
+  <si>
+    <t>CompanyMapping</t>
+  </si>
+  <si>
+    <t>\.files\Company Mapping.xlsx</t>
+  </si>
+  <si>
+    <t>AttachmentsMap</t>
+  </si>
+  <si>
+    <t>\.files\Attachments Map.xlsx</t>
+  </si>
+  <si>
+    <t>AttachmentsMapTable</t>
+  </si>
+  <si>
     <t>C:\Users\GM00061060\OneDrive - ICU Medical Inc\Process Automation - BlackLine\</t>
-  </si>
-  <si>
-    <t>PathList</t>
-  </si>
-  <si>
-    <t>\.files\Final Path List.xlsx</t>
-  </si>
-  <si>
-    <t>BatchSaveLimit</t>
   </si>
 </sst>
 </file>
@@ -161,8 +164,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2CBF29A-24E1-470D-86B8-131960C0F006}" name="Config" displayName="Config" ref="A1:B7" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:B7" xr:uid="{A2CBF29A-24E1-470D-86B8-131960C0F006}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2CBF29A-24E1-470D-86B8-131960C0F006}" name="Config" displayName="Config" ref="A1:B8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B8" xr:uid="{A2CBF29A-24E1-470D-86B8-131960C0F006}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{117A364C-DB7C-4F2A-92FC-22E6A9323CE5}" name="Setting"/>
     <tableColumn id="2" xr3:uid="{CB060DA4-0E30-4D29-B3ED-ED7C5C7A6DFC}" name="Value"/>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484E0D2-DD63-4AC8-93DB-7A39C6835ADA}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,31 +532,39 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
-        <v>100</v>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -566,15 +577,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C71C7B27815D3449A08106381C0287D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b0d188d8626fa7870642b4e4b911241">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b78b3fc-f09d-4cba-84d6-422834d4c347" xmlns:ns3="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f3aa84e18711634fa823cce7d22f212" ns2:_="" ns3:_="">
     <xsd:import namespace="6b78b3fc-f09d-4cba-84d6-422834d4c347"/>
@@ -775,7 +777,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b78b3fc-f09d-4cba-84d6-422834d4c347">
@@ -786,15 +788,16 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35ECBC2-4AFD-4777-8366-1213CE1A5536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E42487B-207E-4983-B848-9163256C5372}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -813,7 +816,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8515B978-ED61-4AA7-855F-49F9C37C603F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -822,4 +825,12 @@
     <ds:schemaRef ds:uri="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35ECBC2-4AFD-4777-8366-1213CE1A5536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/.config/config.xlsx
+++ b/.config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GM00061060\UiPath\BlacklineItemWorking\.config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8DF630-303F-43CB-8332-AE17580BE9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E36018-17F4-4EAD-9D34-318285DE666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3F103952-EB05-452A-A44A-30CC27982BEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F103952-EB05-452A-A44A-30CC27982BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>AttachmentsMapTable</t>
   </si>
   <si>
-    <t>C:\Users\GM00061060\OneDrive - ICU Medical Inc\Process Automation - BlackLine\</t>
+    <t>C:\Users\GM00061060\OneDrive - ICU Medical Inc\Blackline Reconciliations - 2023\</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,6 +577,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b78b3fc-f09d-4cba-84d6-422834d4c347">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C71C7B27815D3449A08106381C0287D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b0d188d8626fa7870642b4e4b911241">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b78b3fc-f09d-4cba-84d6-422834d4c347" xmlns:ns3="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f3aa84e18711634fa823cce7d22f212" ns2:_="" ns3:_="">
     <xsd:import namespace="6b78b3fc-f09d-4cba-84d6-422834d4c347"/>
@@ -777,27 +797,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b78b3fc-f09d-4cba-84d6-422834d4c347">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8515B978-ED61-4AA7-855F-49F9C37C603F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b78b3fc-f09d-4cba-84d6-422834d4c347"/>
+    <ds:schemaRef ds:uri="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35ECBC2-4AFD-4777-8366-1213CE1A5536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E42487B-207E-4983-B848-9163256C5372}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -814,23 +833,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8515B978-ED61-4AA7-855F-49F9C37C603F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b78b3fc-f09d-4cba-84d6-422834d4c347"/>
-    <ds:schemaRef ds:uri="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35ECBC2-4AFD-4777-8366-1213CE1A5536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>